--- a/dist/rd3.2.0-beta-0.9.7.xlsx
+++ b/dist/rd3.2.0-beta-0.9.7.xlsx
@@ -1813,337 +1813,337 @@
     <t>rangeMax</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C47824</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171105</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C61512</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C172217</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ExO_0000127</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25412</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25461</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_000087</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/SCDO_0002829</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/ExO_0000127</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25412</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C15607</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C63536</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C61512</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171105</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25461</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C172217</t>
-  </si>
-  <si>
-    <t>http://semanticscience.org/resource/SIO_000087</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C80271</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001921</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C40975</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/RO_0000056</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C127771</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C40974</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C183337</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93629</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171276</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000035</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142702</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C153145</t>
+  </si>
+  <si>
+    <t>http://www.orpha.net/ORDO/Orphanet_C023</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70713</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42775</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/SNOMEDCT/423493009</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C166209</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176373</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C135383</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16735</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93495</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C103264</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C83164</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GSSO_001755</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
+  </si>
+  <si>
+    <t>https://w3id.org/reproduceme#wasUpdatedBy</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GO_0001894</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000037</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C166237</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16977</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16493</t>
+  </si>
+  <si>
+    <t>http://purl.bioontology.org/ontology/HL7/C0442737</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C69208</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C43361</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C53190</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C171337</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/GO_0001894</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GSSO_001755</t>
-  </si>
-  <si>
-    <t>http://www.orpha.net/ORDO/Orphanet_C023</t>
+    <t>http://purl.obolibrary.org/obo/NCIT_C19924</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25173</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/ICO_0000178</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C40976</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_000669</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171103</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000001</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142704</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C67073</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_001083</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C176375</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171252</t>
+  </si>
+  <si>
+    <t>http://semanticscience.org/resource/SIO_000670</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25393</t>
+  </si>
+  <si>
+    <t>https://w3id.org/reproduceme#doi</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C89336</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/FIX_0000704</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0500027</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000006</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIABIS_0000100</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25737</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/GENEPIO_0001094</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C90353</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42628</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_3273</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C94324</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164483</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OMIT_0004546</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C115505</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164483</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GENEPIO_0001921</t>
-  </si>
-  <si>
-    <t>http://semanticscience.org/resource/SIO_001083</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16977</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C40974</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16493</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C90353</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C176373</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C40976</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C69208</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C93495</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C153145</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C94324</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C142704</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25173</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C89336</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16735</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25737</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171252</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C67073</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C53190</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C176375</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OMIABIS_0000037</t>
+    <t>http://purl.obolibrary.org/obo/OBI_0001891</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C47922</t>
   </si>
   <si>
     <t>http://semanticscience.org/resource/SIO_001330</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C93400</t>
+  </si>
+  <si>
     <t>http://www.ebi.ac.uk/efo/EFO_0005518</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70713</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C166237</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C127771</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C142702</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42775</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C103264</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C47922</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C93400</t>
-  </si>
-  <si>
-    <t>http://semanticscience.org/resource/SIO_000670</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/GENEPIO_0001094</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C83164</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DUO_0000001</t>
-  </si>
-  <si>
-    <t>http://purl.bioontology.org/ontology/SNOMEDCT/423493009</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42628</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/FIX_0000704</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C166209</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C40975</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C135383</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0001891</t>
-  </si>
-  <si>
-    <t>https://w3id.org/reproduceme#doi</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/ICO_0000178</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C43361</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C183337</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0500027</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171103</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
-    <t>http://purl.bioontology.org/ontology/HL7/C0442737</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OMIABIS_0000035</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OMIABIS_0000006</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OMIABIS_0000100</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25393</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C93629</t>
-  </si>
-  <si>
-    <t>https://w3id.org/reproduceme#wasUpdatedBy</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171276</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/RO_0000056</t>
-  </si>
-  <si>
-    <t>http://edamontology.org/data_3273</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C19924</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OMIT_0004546</t>
-  </si>
-  <si>
-    <t>http://semanticscience.org/resource/SIO_000669</t>
-  </si>
-  <si>
     <t>NCIT</t>
   </si>
   <si>
+    <t>ExO</t>
+  </si>
+  <si>
+    <t>SIO</t>
+  </si>
+  <si>
     <t>SCDO</t>
   </si>
   <si>
-    <t>ExO</t>
-  </si>
-  <si>
-    <t>SIO</t>
+    <t>GENEPIO</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>OMIABIS</t>
+  </si>
+  <si>
+    <t>Orphanet</t>
+  </si>
+  <si>
+    <t>SNOMEDCT</t>
+  </si>
+  <si>
+    <t>GSSO</t>
+  </si>
+  <si>
+    <t>reproduceme</t>
   </si>
   <si>
     <t>GO</t>
   </si>
   <si>
-    <t>GSSO</t>
-  </si>
-  <si>
-    <t>Orphanet</t>
-  </si>
-  <si>
-    <t>GENEPIO</t>
-  </si>
-  <si>
-    <t>OMIABIS</t>
+    <t>HL7</t>
+  </si>
+  <si>
+    <t>ICO</t>
+  </si>
+  <si>
+    <t>DUO</t>
+  </si>
+  <si>
+    <t>FIX</t>
+  </si>
+  <si>
+    <t>OBI</t>
+  </si>
+  <si>
+    <t>EDAM</t>
+  </si>
+  <si>
+    <t>OMIT</t>
   </si>
   <si>
     <t>EFO</t>
-  </si>
-  <si>
-    <t>DUO</t>
-  </si>
-  <si>
-    <t>SNOMEDCT</t>
-  </si>
-  <si>
-    <t>FIX</t>
-  </si>
-  <si>
-    <t>OBI</t>
-  </si>
-  <si>
-    <t>reproduceme</t>
-  </si>
-  <si>
-    <t>ICO</t>
-  </si>
-  <si>
-    <t>HL7</t>
-  </si>
-  <si>
-    <t>RO</t>
-  </si>
-  <si>
-    <t>EDAM</t>
-  </si>
-  <si>
-    <t>OMIT</t>
   </si>
   <si>
     <t>isAssociatedWith</t>
@@ -13639,10 +13639,10 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>598</v>
@@ -13659,16 +13659,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>599</v>
       </c>
       <c r="D3" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E3" t="s">
         <v>709</v>
@@ -13679,16 +13679,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>600</v>
       </c>
       <c r="D4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E4" t="s">
         <v>709</v>
@@ -13699,10 +13699,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>601</v>
@@ -13719,10 +13719,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>602</v>
@@ -13739,16 +13739,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>603</v>
       </c>
       <c r="D7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="E7" t="s">
         <v>709</v>
@@ -13759,10 +13759,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>604</v>
@@ -13779,10 +13779,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>605</v>
@@ -13799,10 +13799,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B10" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>606</v>
@@ -13819,16 +13819,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>607</v>
       </c>
       <c r="D11" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E11" t="s">
         <v>709</v>
@@ -13839,16 +13839,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>608</v>
       </c>
       <c r="D12" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E12" t="s">
         <v>709</v>
@@ -13859,16 +13859,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>609</v>
       </c>
       <c r="D13" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E13" t="s">
         <v>709</v>
@@ -13899,16 +13899,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B15" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>611</v>
       </c>
       <c r="D15" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="E15" t="s">
         <v>709</v>
@@ -13919,16 +13919,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="B16" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>612</v>
       </c>
       <c r="D16" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E16" t="s">
         <v>709</v>
@@ -13939,16 +13939,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B17" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>613</v>
       </c>
       <c r="D17" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="E17" t="s">
         <v>709</v>
@@ -13959,16 +13959,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="B18" t="s">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>614</v>
       </c>
       <c r="D18" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E18" t="s">
         <v>709</v>
@@ -13979,16 +13979,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="B19" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>615</v>
       </c>
       <c r="D19" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="E19" t="s">
         <v>709</v>
@@ -13999,10 +13999,10 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="B20" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>616</v>
@@ -14019,16 +14019,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="B21" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>617</v>
       </c>
       <c r="D21" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E21" t="s">
         <v>709</v>
@@ -14039,16 +14039,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="B22" t="s">
-        <v>507</v>
+        <v>524</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>618</v>
       </c>
       <c r="D22" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E22" t="s">
         <v>709</v>
@@ -14059,10 +14059,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="B23" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>619</v>
@@ -14079,10 +14079,10 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="B24" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>620</v>
@@ -14099,16 +14099,16 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B25" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>621</v>
       </c>
       <c r="D25" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E25" t="s">
         <v>709</v>
@@ -14119,10 +14119,10 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="B26" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>622</v>
@@ -14139,10 +14139,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B27" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>623</v>
@@ -14159,16 +14159,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="B28" t="s">
-        <v>525</v>
+        <v>476</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>624</v>
       </c>
       <c r="D28" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="E28" t="s">
         <v>709</v>
@@ -14179,10 +14179,10 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="B29" t="s">
-        <v>533</v>
+        <v>484</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>625</v>
@@ -14199,10 +14199,10 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="B30" t="s">
-        <v>499</v>
+        <v>522</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>626</v>
@@ -14219,16 +14219,16 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="B31" t="s">
-        <v>536</v>
+        <v>477</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>627</v>
       </c>
       <c r="D31" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="E31" t="s">
         <v>709</v>
@@ -14239,10 +14239,10 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="B32" t="s">
-        <v>460</v>
+        <v>501</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>628</v>
@@ -14259,13 +14259,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="B33" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>607</v>
+        <v>629</v>
       </c>
       <c r="D33" t="s">
         <v>689</v>
@@ -14279,13 +14279,13 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="B34" t="s">
-        <v>513</v>
+        <v>475</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D34" t="s">
         <v>689</v>
@@ -14299,13 +14299,13 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="B35" t="s">
-        <v>532</v>
+        <v>465</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D35" t="s">
         <v>689</v>
@@ -14319,13 +14319,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="B36" t="s">
-        <v>458</v>
+        <v>499</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D36" t="s">
         <v>689</v>
@@ -14339,13 +14339,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B37" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D37" t="s">
         <v>689</v>
@@ -14359,13 +14359,13 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>465</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>465</v>
+        <v>117</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>633</v>
+        <v>602</v>
       </c>
       <c r="D38" t="s">
         <v>689</v>
@@ -14379,10 +14379,10 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="B39" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>634</v>
@@ -14399,13 +14399,13 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>474</v>
       </c>
       <c r="B40" t="s">
-        <v>117</v>
+        <v>474</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>608</v>
+        <v>635</v>
       </c>
       <c r="D40" t="s">
         <v>689</v>
@@ -14419,16 +14419,16 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="B41" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D41" t="s">
-        <v>689</v>
+        <v>698</v>
       </c>
       <c r="E41" t="s">
         <v>709</v>
@@ -14439,13 +14439,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="B42" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D42" t="s">
         <v>689</v>
@@ -14459,16 +14459,16 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="B43" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D43" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="E43" t="s">
         <v>709</v>
@@ -14479,16 +14479,16 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="B44" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D44" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="E44" t="s">
         <v>709</v>
@@ -14499,16 +14499,16 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B45" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D45" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E45" t="s">
         <v>709</v>
@@ -14519,16 +14519,16 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="B46" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D46" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="E46" t="s">
         <v>709</v>
@@ -14539,13 +14539,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>462</v>
       </c>
       <c r="B47" t="s">
-        <v>116</v>
+        <v>462</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>605</v>
+        <v>642</v>
       </c>
       <c r="D47" t="s">
         <v>689</v>
@@ -14559,16 +14559,16 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="B48" t="s">
-        <v>468</v>
+        <v>508</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D48" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E48" t="s">
         <v>709</v>
@@ -14579,16 +14579,16 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B49" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="D49" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="E49" t="s">
         <v>709</v>
@@ -14599,13 +14599,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="B50" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D50" t="s">
         <v>689</v>
@@ -14619,13 +14619,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B51" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D51" t="s">
         <v>689</v>
@@ -14639,13 +14639,13 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>520</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>520</v>
+        <v>116</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>645</v>
+        <v>601</v>
       </c>
       <c r="D52" t="s">
         <v>689</v>
@@ -14659,13 +14659,13 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="B53" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D53" t="s">
         <v>689</v>
@@ -14679,13 +14679,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="B54" t="s">
-        <v>534</v>
+        <v>496</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D54" t="s">
         <v>689</v>
@@ -14699,13 +14699,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="B55" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D55" t="s">
         <v>689</v>
@@ -14719,13 +14719,13 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="B56" t="s">
-        <v>486</v>
+        <v>458</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D56" t="s">
         <v>689</v>
@@ -14739,16 +14739,16 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="B57" t="s">
-        <v>497</v>
+        <v>466</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D57" t="s">
-        <v>689</v>
+        <v>702</v>
       </c>
       <c r="E57" t="s">
         <v>709</v>
@@ -14759,13 +14759,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="B58" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D58" t="s">
         <v>689</v>
@@ -14779,13 +14779,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>513</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>513</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>601</v>
+        <v>653</v>
       </c>
       <c r="D59" t="s">
         <v>689</v>
@@ -14799,16 +14799,16 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B60" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D60" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E60" t="s">
         <v>709</v>
@@ -14819,16 +14819,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="B61" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="D61" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="E61" t="s">
         <v>709</v>
@@ -14839,16 +14839,16 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="B62" t="s">
-        <v>461</v>
+        <v>510</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D62" t="s">
-        <v>689</v>
+        <v>703</v>
       </c>
       <c r="E62" t="s">
         <v>709</v>
@@ -14859,13 +14859,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>474</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>474</v>
+        <v>119</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>655</v>
+        <v>604</v>
       </c>
       <c r="D63" t="s">
         <v>689</v>
@@ -14879,13 +14879,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="B64" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D64" t="s">
         <v>689</v>
@@ -14899,16 +14899,16 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B65" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D65" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="E65" t="s">
         <v>709</v>
@@ -14919,16 +14919,16 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D66" t="s">
-        <v>700</v>
+        <v>689</v>
       </c>
       <c r="E66" t="s">
         <v>709</v>
@@ -14939,16 +14939,16 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="B67" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D67" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E67" t="s">
         <v>709</v>
@@ -14959,16 +14959,16 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="B68" t="s">
-        <v>492</v>
+        <v>531</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D68" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="E68" t="s">
         <v>709</v>
@@ -14979,13 +14979,13 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B69" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D69" t="s">
         <v>689</v>
@@ -14999,16 +14999,16 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="B70" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D70" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E70" t="s">
         <v>709</v>
@@ -15019,13 +15019,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="B71" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>643</v>
+        <v>664</v>
       </c>
       <c r="D71" t="s">
         <v>689</v>
@@ -15039,16 +15039,16 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B72" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D72" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="E72" t="s">
         <v>709</v>
@@ -15059,13 +15059,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="B73" t="s">
-        <v>475</v>
+        <v>514</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="D73" t="s">
         <v>689</v>
@@ -15079,13 +15079,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
       <c r="B74" t="s">
-        <v>514</v>
+        <v>459</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="D74" t="s">
         <v>689</v>
@@ -15099,16 +15099,16 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B75" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="D75" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E75" t="s">
         <v>709</v>
@@ -15119,16 +15119,16 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B76" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D76" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E76" t="s">
         <v>709</v>
@@ -15139,16 +15139,16 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="B77" t="s">
-        <v>457</v>
+        <v>526</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="D77" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E77" t="s">
         <v>709</v>
@@ -15159,16 +15159,16 @@
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="B78" t="s">
-        <v>466</v>
+        <v>493</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="D78" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
       <c r="E78" t="s">
         <v>709</v>
@@ -15179,16 +15179,16 @@
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="B79" t="s">
-        <v>489</v>
+        <v>502</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="D79" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="E79" t="s">
         <v>709</v>
@@ -15199,13 +15199,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="B80" t="s">
-        <v>524</v>
+        <v>467</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D80" t="s">
         <v>689</v>
@@ -15219,16 +15219,16 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="B81" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>672</v>
+        <v>612</v>
       </c>
       <c r="D81" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="E81" t="s">
         <v>709</v>
@@ -15239,16 +15239,16 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="B82" t="s">
-        <v>535</v>
+        <v>478</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D82" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="E82" t="s">
         <v>709</v>
@@ -15259,13 +15259,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="B83" t="s">
-        <v>516</v>
+        <v>481</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D83" t="s">
         <v>689</v>
@@ -15279,16 +15279,16 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="B84" t="s">
-        <v>463</v>
+        <v>516</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D84" t="s">
-        <v>705</v>
+        <v>689</v>
       </c>
       <c r="E84" t="s">
         <v>709</v>
@@ -15299,16 +15299,16 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B85" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>676</v>
+        <v>605</v>
       </c>
       <c r="D85" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="E85" t="s">
         <v>709</v>
@@ -15319,16 +15319,16 @@
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="B86" t="s">
-        <v>526</v>
+        <v>470</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>677</v>
       </c>
       <c r="D86" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="E86" t="s">
         <v>709</v>
@@ -15339,16 +15339,16 @@
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="B87" t="s">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>678</v>
       </c>
       <c r="D87" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="E87" t="s">
         <v>709</v>
@@ -15359,16 +15359,16 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B88" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>679</v>
       </c>
       <c r="D88" t="s">
-        <v>689</v>
+        <v>706</v>
       </c>
       <c r="E88" t="s">
         <v>709</v>
@@ -15379,10 +15379,10 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="B89" t="s">
-        <v>515</v>
+        <v>460</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>680</v>
@@ -15399,10 +15399,10 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B90" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>681</v>
@@ -15419,16 +15419,16 @@
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B91" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>682</v>
       </c>
       <c r="D91" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="E91" t="s">
         <v>709</v>
@@ -15439,10 +15439,10 @@
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B92" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>683</v>
@@ -15459,16 +15459,16 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="B93" t="s">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>684</v>
       </c>
       <c r="D93" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E93" t="s">
         <v>709</v>
@@ -15479,16 +15479,16 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="B94" t="s">
-        <v>480</v>
+        <v>497</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>685</v>
       </c>
       <c r="D94" t="s">
-        <v>707</v>
+        <v>689</v>
       </c>
       <c r="E94" t="s">
         <v>709</v>
@@ -15499,16 +15499,16 @@
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="B95" t="s">
-        <v>529</v>
+        <v>468</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>686</v>
       </c>
       <c r="D95" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E95" t="s">
         <v>709</v>
@@ -15519,13 +15519,13 @@
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>124</v>
+        <v>488</v>
       </c>
       <c r="B96" t="s">
-        <v>124</v>
+        <v>488</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>602</v>
+        <v>687</v>
       </c>
       <c r="D96" t="s">
         <v>689</v>
@@ -15539,13 +15539,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B97" t="s">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D97" t="s">
         <v>708</v>
@@ -15559,16 +15559,16 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>511</v>
+        <v>124</v>
       </c>
       <c r="B98" t="s">
-        <v>511</v>
+        <v>124</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>688</v>
+        <v>609</v>
       </c>
       <c r="D98" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E98" t="s">
         <v>709</v>
@@ -15661,7 +15661,7 @@
     <hyperlink ref="F41" r:id="rId80" location="isAssociatedWith"/>
     <hyperlink ref="C42" r:id="rId81"/>
     <hyperlink ref="F42" r:id="rId82" location="isAssociatedWith"/>
-    <hyperlink ref="C43" r:id="rId83"/>
+    <hyperlink ref="C43" r:id="rId83" location="wasUpdatedBy"/>
     <hyperlink ref="F43" r:id="rId84" location="isAssociatedWith"/>
     <hyperlink ref="C44" r:id="rId85"/>
     <hyperlink ref="F44" r:id="rId86" location="isAssociatedWith"/>
@@ -15719,7 +15719,7 @@
     <hyperlink ref="F70" r:id="rId138" location="isAssociatedWith"/>
     <hyperlink ref="C71" r:id="rId139"/>
     <hyperlink ref="F71" r:id="rId140" location="isAssociatedWith"/>
-    <hyperlink ref="C72" r:id="rId141"/>
+    <hyperlink ref="C72" r:id="rId141" location="doi"/>
     <hyperlink ref="F72" r:id="rId142" location="isAssociatedWith"/>
     <hyperlink ref="C73" r:id="rId143"/>
     <hyperlink ref="F73" r:id="rId144" location="isAssociatedWith"/>
@@ -15727,7 +15727,7 @@
     <hyperlink ref="F74" r:id="rId146" location="isAssociatedWith"/>
     <hyperlink ref="C75" r:id="rId147"/>
     <hyperlink ref="F75" r:id="rId148" location="isAssociatedWith"/>
-    <hyperlink ref="C76" r:id="rId149" location="doi"/>
+    <hyperlink ref="C76" r:id="rId149"/>
     <hyperlink ref="F76" r:id="rId150" location="isAssociatedWith"/>
     <hyperlink ref="C77" r:id="rId151"/>
     <hyperlink ref="F77" r:id="rId152" location="isAssociatedWith"/>
@@ -15757,7 +15757,7 @@
     <hyperlink ref="F89" r:id="rId176" location="isAssociatedWith"/>
     <hyperlink ref="C90" r:id="rId177"/>
     <hyperlink ref="F90" r:id="rId178" location="isAssociatedWith"/>
-    <hyperlink ref="C91" r:id="rId179" location="wasUpdatedBy"/>
+    <hyperlink ref="C91" r:id="rId179"/>
     <hyperlink ref="F91" r:id="rId180" location="isAssociatedWith"/>
     <hyperlink ref="C92" r:id="rId181"/>
     <hyperlink ref="F92" r:id="rId182" location="isAssociatedWith"/>
